--- a/布局.xlsx
+++ b/布局.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13200"/>
+    <workbookView windowWidth="28800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -60,7 +60,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,47 +73,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +90,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,14 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,15 +144,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +159,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +180,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -212,43 +212,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,127 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,24 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,32 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,151 +459,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2242,13 +2242,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:I7"/>
+  <dimension ref="C2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="2" spans="6:9">
       <c r="F2" s="1" t="s">
@@ -2330,6 +2330,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="10" spans="3:3">
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:G2"/>
